--- a/data/clientes_gpon_borrados.xlsx
+++ b/data/clientes_gpon_borrados.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{1B7C0EE7-E5C8-614F-812A-57F033545244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="14">
   <si>
     <t>nombre</t>
   </si>
@@ -31,15 +45,6 @@
     <t>domicilio</t>
   </si>
   <si>
-    <t>nap</t>
-  </si>
-  <si>
-    <t>nodo</t>
-  </si>
-  <si>
-    <t>puerto</t>
-  </si>
-  <si>
     <t>Carlos Gómez</t>
   </si>
   <si>
@@ -50,19 +55,13 @@
   </si>
   <si>
     <t>Mitre 123</t>
-  </si>
-  <si>
-    <t>NAP-03</t>
-  </si>
-  <si>
-    <t>Nodo-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +124,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +210,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,14 +421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,39 +446,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>3001</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
         <v>8</v>
       </c>
     </row>

--- a/data/clientes_gpon_borrados.xlsx
+++ b/data/clientes_gpon_borrados.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{1B7C0EE7-E5C8-614F-812A-57F033545244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LABORATORIO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>nombre</t>
   </si>
@@ -45,22 +49,355 @@
     <t>domicilio</t>
   </si>
   <si>
-    <t>Carlos Gómez</t>
-  </si>
-  <si>
-    <t>G-001</t>
-  </si>
-  <si>
-    <t>Borrado</t>
-  </si>
-  <si>
-    <t>Mitre 123</t>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>BARRETO</t>
+  </si>
+  <si>
+    <t>VELASQUEZ OYARZO</t>
+  </si>
+  <si>
+    <t>ARRIETA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>GUARINI</t>
+  </si>
+  <si>
+    <t>RASCLARD</t>
+  </si>
+  <si>
+    <t>VITIAN</t>
+  </si>
+  <si>
+    <t>HEINS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MOLINELLI</t>
+  </si>
+  <si>
+    <t>ORUE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>NAHUELQUIN CARCAMO</t>
+  </si>
+  <si>
+    <t>OYARZUN</t>
+  </si>
+  <si>
+    <t>FAZZI</t>
+  </si>
+  <si>
+    <t>CORTAZAR</t>
+  </si>
+  <si>
+    <t>DAMARIS SRL</t>
+  </si>
+  <si>
+    <t>CAICHEO</t>
+  </si>
+  <si>
+    <t>LAGUARDIA</t>
+  </si>
+  <si>
+    <t>ANDRADE DAVET</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>FIGUEREDO</t>
+  </si>
+  <si>
+    <t>PANTANETTI GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MUNICIPALIDAD DE USHUAIA</t>
+  </si>
+  <si>
+    <t>DE LA FUENTE</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>LOPEZ LAHOZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>PERCARA</t>
+  </si>
+  <si>
+    <t>LAZARTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>FUNES</t>
+  </si>
+  <si>
+    <t>ZIGUENCIO</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>334032</t>
+  </si>
+  <si>
+    <t>334383</t>
+  </si>
+  <si>
+    <t>335326</t>
+  </si>
+  <si>
+    <t>337040</t>
+  </si>
+  <si>
+    <t>341306</t>
+  </si>
+  <si>
+    <t>343928</t>
+  </si>
+  <si>
+    <t>435736</t>
+  </si>
+  <si>
+    <t>1864464</t>
+  </si>
+  <si>
+    <t>5357539</t>
+  </si>
+  <si>
+    <t>5365563</t>
+  </si>
+  <si>
+    <t>5419200</t>
+  </si>
+  <si>
+    <t>5445962</t>
+  </si>
+  <si>
+    <t>5473896</t>
+  </si>
+  <si>
+    <t>5481564</t>
+  </si>
+  <si>
+    <t>5493960</t>
+  </si>
+  <si>
+    <t>5508056</t>
+  </si>
+  <si>
+    <t>5525475</t>
+  </si>
+  <si>
+    <t>5536440</t>
+  </si>
+  <si>
+    <t>5538755</t>
+  </si>
+  <si>
+    <t>5545901</t>
+  </si>
+  <si>
+    <t>5559801</t>
+  </si>
+  <si>
+    <t>5561667</t>
+  </si>
+  <si>
+    <t>5565508</t>
+  </si>
+  <si>
+    <t>5580530</t>
+  </si>
+  <si>
+    <t>5585337</t>
+  </si>
+  <si>
+    <t>5589642</t>
+  </si>
+  <si>
+    <t>5600005</t>
+  </si>
+  <si>
+    <t>5626908</t>
+  </si>
+  <si>
+    <t>5702411</t>
+  </si>
+  <si>
+    <t>5735826</t>
+  </si>
+  <si>
+    <t>5756131</t>
+  </si>
+  <si>
+    <t>5779296</t>
+  </si>
+  <si>
+    <t>5784674</t>
+  </si>
+  <si>
+    <t>5786176</t>
+  </si>
+  <si>
+    <t>5793243</t>
+  </si>
+  <si>
+    <t>5830756</t>
+  </si>
+  <si>
+    <t>5842069</t>
+  </si>
+  <si>
+    <t>5846592</t>
+  </si>
+  <si>
+    <t>CONECTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* MONTE GALLINERO 5 5   T16B </t>
+  </si>
+  <si>
+    <t>B* MONTE GALLINERO 2 2   T1B 000</t>
+  </si>
+  <si>
+    <t>PATAGONIA 239     007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMSHEN 770     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICENTE PADIN OTERO 257     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 640 VIVIENDAS 0 A  2 T15C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEL RECODO 2082     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPOLITO BOUCHARD 447 3    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA DEL LABERINTO 3250     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNADOR PAZ 827   PA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEPENDENCIA 918     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN RUIZ GALAN 689     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAYEN 353     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE MARTIAL 646     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO GRANDE 160 FONDO    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGALLANES 333     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONSE?OR FAGNANO 592     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMER ARGENTINO 107 E  2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNADOR CAMPOS 1240     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTARTIDA ARGENTINA 870     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* INTEVU XVIII 23  23B   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO ARGENTINO 1478     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFERINO NAMUNCURA 210 A  PB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN MANUEL DE ROSAS 182 12  3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE O RETAMAR 1376 1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUBUT 1857     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO ARGENTINO 1243     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA GRANDE 3241 B    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO ESPA?OL 1383     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEHUELCHES 1459     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 DE JULIO 128   4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERESA DE CALCUTA 1346     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTENDENTE MANUEL OLMO 793 1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMON CORTEZ 559     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA ESTANCIA 2826 A  PB 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 245 VIVIENDAS 245 11    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERESA DE CALCUTA 1360     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTURO ANGEL 755 1    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -176,9 +513,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +550,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +585,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,16 +758,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,21 +784,536 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3001</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes_gpon_borrados.xlsx
+++ b/data/clientes_gpon_borrados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LABORATORIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto web estatica con archivos JSON\PLANTILLAS LISTAS PARA SUBIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAC9CB4-DFC1-48F4-A56C-33A31B396903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
   <si>
     <t>nombre</t>
   </si>
@@ -49,12 +50,6 @@
     <t>domicilio</t>
   </si>
   <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>BARRETO</t>
-  </si>
-  <si>
     <t>VELASQUEZ OYARZO</t>
   </si>
   <si>
@@ -70,9 +65,6 @@
     <t>RASCLARD</t>
   </si>
   <si>
-    <t>VITIAN</t>
-  </si>
-  <si>
     <t>HEINS</t>
   </si>
   <si>
@@ -103,39 +95,18 @@
     <t>CORTAZAR</t>
   </si>
   <si>
-    <t>DAMARIS SRL</t>
-  </si>
-  <si>
     <t>CAICHEO</t>
   </si>
   <si>
-    <t>LAGUARDIA</t>
-  </si>
-  <si>
-    <t>ANDRADE DAVET</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
-    <t>FIGUEREDO</t>
-  </si>
-  <si>
     <t>PANTANETTI GUTIERREZ</t>
   </si>
   <si>
-    <t>MUNICIPALIDAD DE USHUAIA</t>
-  </si>
-  <si>
-    <t>DE LA FUENTE</t>
-  </si>
-  <si>
     <t>MORENO</t>
   </si>
   <si>
-    <t>LOPEZ LAHOZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -157,18 +128,6 @@
     <t>REAL</t>
   </si>
   <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>334032</t>
-  </si>
-  <si>
-    <t>334383</t>
-  </si>
-  <si>
     <t>335326</t>
   </si>
   <si>
@@ -184,15 +143,9 @@
     <t>435736</t>
   </si>
   <si>
-    <t>1864464</t>
-  </si>
-  <si>
     <t>5357539</t>
   </si>
   <si>
-    <t>5365563</t>
-  </si>
-  <si>
     <t>5419200</t>
   </si>
   <si>
@@ -217,39 +170,18 @@
     <t>5536440</t>
   </si>
   <si>
-    <t>5538755</t>
-  </si>
-  <si>
     <t>5545901</t>
   </si>
   <si>
-    <t>5559801</t>
-  </si>
-  <si>
-    <t>5561667</t>
-  </si>
-  <si>
     <t>5565508</t>
   </si>
   <si>
-    <t>5580530</t>
-  </si>
-  <si>
     <t>5585337</t>
   </si>
   <si>
-    <t>5589642</t>
-  </si>
-  <si>
-    <t>5600005</t>
-  </si>
-  <si>
     <t>5626908</t>
   </si>
   <si>
-    <t>5702411</t>
-  </si>
-  <si>
     <t>5735826</t>
   </si>
   <si>
@@ -271,21 +203,9 @@
     <t>5830756</t>
   </si>
   <si>
-    <t>5842069</t>
-  </si>
-  <si>
-    <t>5846592</t>
-  </si>
-  <si>
     <t>CONECTADO</t>
   </si>
   <si>
-    <t xml:space="preserve">B* MONTE GALLINERO 5 5   T16B </t>
-  </si>
-  <si>
-    <t>B* MONTE GALLINERO 2 2   T1B 000</t>
-  </si>
-  <si>
     <t>PATAGONIA 239     007</t>
   </si>
   <si>
@@ -301,15 +221,9 @@
     <t xml:space="preserve">DEL RECODO 2082     </t>
   </si>
   <si>
-    <t xml:space="preserve">HIPOLITO BOUCHARD 447 3    </t>
-  </si>
-  <si>
     <t xml:space="preserve">BAHIA DEL LABERINTO 3250     </t>
   </si>
   <si>
-    <t xml:space="preserve">GOBERNADOR PAZ 827   PA  </t>
-  </si>
-  <si>
     <t xml:space="preserve">INDEPENDENCIA 918     </t>
   </si>
   <si>
@@ -328,45 +242,21 @@
     <t xml:space="preserve">MAGALLANES 333     </t>
   </si>
   <si>
-    <t xml:space="preserve">MONSE?OR FAGNANO 592     </t>
-  </si>
-  <si>
     <t xml:space="preserve">PRIMER ARGENTINO 107 E  2  </t>
   </si>
   <si>
-    <t xml:space="preserve">GOBERNADOR CAMPOS 1240     </t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTARTIDA ARGENTINA 870     </t>
   </si>
   <si>
-    <t xml:space="preserve">B* INTEVU XVIII 23  23B   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUERTO ARGENTINO 1478     </t>
-  </si>
-  <si>
     <t xml:space="preserve">CEFERINO NAMUNCURA 210 A  PB  </t>
   </si>
   <si>
-    <t xml:space="preserve">JUAN MANUEL DE ROSAS 182 12  3  </t>
-  </si>
-  <si>
     <t xml:space="preserve">JOSE O RETAMAR 1376 1    </t>
   </si>
   <si>
-    <t xml:space="preserve">CHUBUT 1857     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUERTO ARGENTINO 1243     </t>
-  </si>
-  <si>
     <t xml:space="preserve">BAHIA GRANDE 3241 B    </t>
   </si>
   <si>
-    <t xml:space="preserve">PUERTO ESPA?OL 1383     </t>
-  </si>
-  <si>
     <t xml:space="preserve">TEHUELCHES 1459     </t>
   </si>
   <si>
@@ -388,16 +278,262 @@
     <t xml:space="preserve">B* 245 VIVIENDAS 245 11    </t>
   </si>
   <si>
-    <t xml:space="preserve">TERESA DE CALCUTA 1360     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTURO ANGEL 755 1    </t>
+    <t>334245</t>
+  </si>
+  <si>
+    <t>336021</t>
+  </si>
+  <si>
+    <t>338338</t>
+  </si>
+  <si>
+    <t>342349</t>
+  </si>
+  <si>
+    <t>343400</t>
+  </si>
+  <si>
+    <t>5272080</t>
+  </si>
+  <si>
+    <t>5460049</t>
+  </si>
+  <si>
+    <t>5484790</t>
+  </si>
+  <si>
+    <t>5506082</t>
+  </si>
+  <si>
+    <t>5516386</t>
+  </si>
+  <si>
+    <t>5532907</t>
+  </si>
+  <si>
+    <t>5537263</t>
+  </si>
+  <si>
+    <t>5565648</t>
+  </si>
+  <si>
+    <t>5567760</t>
+  </si>
+  <si>
+    <t>5575767</t>
+  </si>
+  <si>
+    <t>5602474</t>
+  </si>
+  <si>
+    <t>5608239</t>
+  </si>
+  <si>
+    <t>5617742</t>
+  </si>
+  <si>
+    <t>5651096</t>
+  </si>
+  <si>
+    <t>5669046</t>
+  </si>
+  <si>
+    <t>5678488</t>
+  </si>
+  <si>
+    <t>5717086</t>
+  </si>
+  <si>
+    <t>5725750</t>
+  </si>
+  <si>
+    <t>5768868</t>
+  </si>
+  <si>
+    <t>5845236</t>
+  </si>
+  <si>
+    <t>5854429</t>
+  </si>
+  <si>
+    <t>5854993</t>
+  </si>
+  <si>
+    <t>5864014</t>
+  </si>
+  <si>
+    <t>SOSA</t>
+  </si>
+  <si>
+    <t>WOLOCHIN</t>
+  </si>
+  <si>
+    <t>PETRIETTE</t>
+  </si>
+  <si>
+    <t>HOTEL TIERRA DEL FUEGO</t>
+  </si>
+  <si>
+    <t>ARREDONDO</t>
+  </si>
+  <si>
+    <t>PUGNETTI</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>URQUIZA</t>
+  </si>
+  <si>
+    <t>BEJARANO</t>
+  </si>
+  <si>
+    <t>CAZON</t>
+  </si>
+  <si>
+    <t>MANSILLA</t>
+  </si>
+  <si>
+    <t>BAZAN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GRANEROS</t>
+  </si>
+  <si>
+    <t>BELLINVIA</t>
+  </si>
+  <si>
+    <t>AILLAPAN</t>
+  </si>
+  <si>
+    <t>RETAMAL BUSTOS</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>ARIZNABARRETA</t>
+  </si>
+  <si>
+    <t>BALMACEDA</t>
+  </si>
+  <si>
+    <t>GALVAN</t>
+  </si>
+  <si>
+    <t>ANTILEF MANQUEPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASAJE LAS GOLONDRINAS 728  216   </t>
+  </si>
+  <si>
+    <t>25 DE MAYO 484     007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO ESPAÑOL 636     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNADOR DELOQUI 198     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA GRANDE 3207 B    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL BELGRANO 469 B    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 640 VIVIENDAS 10 C    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 DE MAYO 245     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 640 VIVIENDAS 0 9   T1C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTENDENTE MANUEL OLMO 1011  3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONSEÑOR FAGNANO 592     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIO TROXLER 249 4    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS ZAR 88     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTE J A ROCA 467     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 245 VIVIENDAS 0 2  2 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B* 640 VIVIENDAS 4317 B  2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA TORITO 2975     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA DEL LABERINTO 3092     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUERTO ARGENTINO 1266     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONSEÑOR FAGNANO 462 PB    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTOR JUAN LAWRENCE 864 1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA DE LOS ABRIGOS 2750 A  PB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBERNADOR VALDEZ 696     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAHIA GRANDE 2881     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFERINO NAMUNCURA 77     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEGIA BASKET 364     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO IGUAZU 693     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTENDENTE MANUEL OLMO 1098     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGALLANES 836  836   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -513,9 +649,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,7 +686,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -758,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,534 +922,744 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
         <v>80</v>
       </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
